--- a/biology/Zoologie/Arctops/Arctops.xlsx
+++ b/biology/Zoologie/Arctops/Arctops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctops (signifiant « visage d'ours ») est un genre éteint de thérapsides gorgonopsiens, qui a vécu au cours du Permien supérieur.
 L'espèce type est Arctops willistoni. Une seconde espèce (A. watsoni) est peut-être synonyme de A. willistoni. A. kitchingi est peut-être une troisième espèce mais le titre ne lui a été attribué que provisoirement.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesurait jusqu'à 2 mètres de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesurait jusqu'à 2 mètres de long.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification et/ou cladogramme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci-dessous, le cladogramme du taxon Gorgonopsia selon Kammerer &amp; Rubidge (2022)[2], qui suit en grande partie les cladogrammes précédemment établis depuis 2018[3],[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, le cladogramme du taxon Gorgonopsia selon Kammerer &amp; Rubidge (2022), qui suit en grande partie les cladogrammes précédemment établis depuis 2018, :
 </t>
         </is>
       </c>
